--- a/inputTEMPLATE d.xlsx
+++ b/inputTEMPLATE d.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="input06" sheetId="1" r:id="rId1"/>
@@ -1025,9 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B40:C97"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2:BC97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AY12">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>(A14*B14)*I14</f>
+        <f t="shared" ref="AA14:AA45" si="17">(A14*B14)*I14</f>
         <v>400</v>
       </c>
       <c r="AB14">
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:W55" si="17">(J15/100)*(A15*B15)</f>
+        <f t="shared" ref="W15:W55" si="18">(J15/100)*(A15*B15)</f>
         <v>200</v>
       </c>
       <c r="X15">
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <f>(A15*B15)*I15</f>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="AB15">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AY15">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3900,20 +3900,20 @@
         <v>1</v>
       </c>
       <c r="W16">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f>(A16*B16)*I16</f>
         <v>10000</v>
       </c>
       <c r="AB16">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -4085,20 +4085,20 @@
         <v>1</v>
       </c>
       <c r="W17">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f>(A17*B17)*I17</f>
         <v>20000</v>
       </c>
       <c r="AB17">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -4270,20 +4270,20 @@
         <v>1</v>
       </c>
       <c r="W18">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f>(A18*B18)*I18</f>
         <v>30000</v>
       </c>
       <c r="AB18">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AY18">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -4455,20 +4455,20 @@
         <v>1</v>
       </c>
       <c r="W19">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f>(A19*B19)*I19</f>
         <v>34000</v>
       </c>
       <c r="AB19">
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AY19">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4640,20 +4640,20 @@
         <v>1</v>
       </c>
       <c r="W20">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f>(A20*B20)*I20</f>
         <v>40000</v>
       </c>
       <c r="AB20">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -4825,20 +4825,20 @@
         <v>1</v>
       </c>
       <c r="W21">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f>(A21*B21)*I21</f>
         <v>400</v>
       </c>
       <c r="AB21">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -5010,20 +5010,20 @@
         <v>1</v>
       </c>
       <c r="W22">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f>(A22*B22)*I22</f>
         <v>4000</v>
       </c>
       <c r="AB22">
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -5195,20 +5195,20 @@
         <v>1</v>
       </c>
       <c r="W23">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f>(A23*B23)*I23</f>
         <v>10000</v>
       </c>
       <c r="AB23">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ23">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -5380,20 +5380,20 @@
         <v>1</v>
       </c>
       <c r="W24">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f>(A24*B24)*I24</f>
         <v>20000</v>
       </c>
       <c r="AB24">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -5565,20 +5565,20 @@
         <v>1</v>
       </c>
       <c r="W25">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f>(A25*B25)*I25</f>
         <v>30000</v>
       </c>
       <c r="AB25">
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5750,20 +5750,20 @@
         <v>1</v>
       </c>
       <c r="W26">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f>(A26*B26)*I26</f>
         <v>34000</v>
       </c>
       <c r="AB26">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5935,20 +5935,20 @@
         <v>1</v>
       </c>
       <c r="W27">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f>(A27*B27)*I27</f>
         <v>40000</v>
       </c>
       <c r="AB27">
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -6120,20 +6120,20 @@
         <v>1</v>
       </c>
       <c r="W28">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <f>(A28*B28)*I28</f>
         <v>400</v>
       </c>
       <c r="AB28">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -6305,20 +6305,20 @@
         <v>1</v>
       </c>
       <c r="W29">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f>(A29*B29)*I29</f>
         <v>4000</v>
       </c>
       <c r="AB29">
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD29">
         <v>0</v>
@@ -6490,20 +6490,20 @@
         <v>1</v>
       </c>
       <c r="W30">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <f>(A30*B30)*I30</f>
         <v>10000</v>
       </c>
       <c r="AB30">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="BC30">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD30">
         <v>0</v>
@@ -6675,20 +6675,20 @@
         <v>1</v>
       </c>
       <c r="W31">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <f>(A31*B31)*I31</f>
         <v>20000</v>
       </c>
       <c r="AB31">
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AY31">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ31">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD31">
         <v>0</v>
@@ -6860,20 +6860,20 @@
         <v>1</v>
       </c>
       <c r="W32">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f>(A32*B32)*I32</f>
         <v>30000</v>
       </c>
       <c r="AB32">
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="AY32">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="BC32">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD32">
         <v>0</v>
@@ -7045,20 +7045,20 @@
         <v>1</v>
       </c>
       <c r="W33">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f>(A33*B33)*I33</f>
         <v>34000</v>
       </c>
       <c r="AB33">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="AY33">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="BC33">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD33">
         <v>0</v>
@@ -7230,20 +7230,20 @@
         <v>1</v>
       </c>
       <c r="W34">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <f>(A34*B34)*I34</f>
         <v>40000</v>
       </c>
       <c r="AB34">
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AY34">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="BC34">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD34">
         <v>0</v>
@@ -7415,20 +7415,20 @@
         <v>1</v>
       </c>
       <c r="W35">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <f>(A35*B35)*I35</f>
         <v>400</v>
       </c>
       <c r="AB35">
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="BC35">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD35">
         <v>0</v>
@@ -7565,7 +7565,7 @@
         <v>60</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" ref="L36:L55" si="18">AA36/W36</f>
+        <f t="shared" ref="L36:L55" si="19">AA36/W36</f>
         <v>20</v>
       </c>
       <c r="M36" s="3">
@@ -7600,20 +7600,20 @@
         <v>1</v>
       </c>
       <c r="W36">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <f>(A36*B36)*I36</f>
         <v>4000</v>
       </c>
       <c r="AB36">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="AY36">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="BC36">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD36">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="M37" s="3">
@@ -7785,20 +7785,20 @@
         <v>1</v>
       </c>
       <c r="W37">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <f>(A37*B37)*I37</f>
         <v>10000</v>
       </c>
       <c r="AB37">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="AY37">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="BC37">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD37">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>60</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="M38" s="3">
@@ -7970,20 +7970,20 @@
         <v>1</v>
       </c>
       <c r="W38">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <f>(A38*B38)*I38</f>
         <v>20000</v>
       </c>
       <c r="AB38">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="AY38">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="BC38">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD38">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         <v>60</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="M39" s="3">
@@ -8155,20 +8155,20 @@
         <v>1</v>
       </c>
       <c r="W39">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <f>(A39*B39)*I39</f>
         <v>30000</v>
       </c>
       <c r="AB39">
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="AY39">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="BC39">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD39">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>60</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="M40" s="3">
@@ -8340,20 +8340,20 @@
         <v>1</v>
       </c>
       <c r="W40">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <f>(A40*B40)*I40</f>
         <v>34000</v>
       </c>
       <c r="AB40">
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="AY40">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ40">
         <v>0</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="BC40">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD40">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>60</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="M41" s="3">
@@ -8525,20 +8525,20 @@
         <v>1</v>
       </c>
       <c r="W41">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <f>(A41*B41)*I41</f>
         <v>40000</v>
       </c>
       <c r="AB41">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="AY41">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ41">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="BC41">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD41">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>60</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="M42" s="3">
@@ -8711,20 +8711,20 @@
         <v>1</v>
       </c>
       <c r="W42">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <f>(A42*B42)*I42</f>
         <v>400</v>
       </c>
       <c r="AB42">
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="AY42">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="BC42">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD42">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>60</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="M43" s="3">
@@ -8878,7 +8878,7 @@
         <v>7.5</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" ref="Q43:Q48" si="19">7.5/4</f>
+        <f t="shared" ref="Q43:Q48" si="20">7.5/4</f>
         <v>1.875</v>
       </c>
       <c r="R43" s="2">
@@ -8897,20 +8897,20 @@
         <v>1</v>
       </c>
       <c r="W43">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <f>(A43*B43)*I43</f>
         <v>4000</v>
       </c>
       <c r="AB43">
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="AY43">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="BC43">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD43">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>60</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="M44" s="3">
@@ -9064,7 +9064,7 @@
         <v>7.5</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.875</v>
       </c>
       <c r="R44" s="2">
@@ -9083,20 +9083,20 @@
         <v>1</v>
       </c>
       <c r="W44">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <f>(A44*B44)*I44</f>
         <v>10000</v>
       </c>
       <c r="AB44">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="AY44">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BC44">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD44">
         <v>0</v>
@@ -9233,7 +9233,7 @@
         <v>60</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="M45" s="3">
@@ -9250,7 +9250,7 @@
         <v>7.5</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.875</v>
       </c>
       <c r="R45" s="2">
@@ -9269,20 +9269,20 @@
         <v>1</v>
       </c>
       <c r="W45">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <f t="shared" si="17"/>
-        <v>200</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <f>(A45*B45)*I45</f>
         <v>20000</v>
       </c>
       <c r="AB45">
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="AY45">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="BC45">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD45">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>60</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="M46" s="3">
@@ -9436,7 +9436,7 @@
         <v>7.5</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.875</v>
       </c>
       <c r="R46" s="2">
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="W46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X46">
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" ref="AA46:AA55" si="20">(A46*B46)*I46</f>
+        <f t="shared" ref="AA46:AA55" si="21">(A46*B46)*I46</f>
         <v>30000</v>
       </c>
       <c r="AB46">
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD46">
         <v>0</v>
@@ -9605,7 +9605,7 @@
         <v>60</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="M47" s="3">
@@ -9622,7 +9622,7 @@
         <v>7.5</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.875</v>
       </c>
       <c r="R47" s="2">
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X47">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>34000</v>
       </c>
       <c r="AB47">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ47">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD47">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>60</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="M48" s="3">
@@ -9808,7 +9808,7 @@
         <v>7.5</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.875</v>
       </c>
       <c r="R48" s="2">
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="W48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X48">
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>40000</v>
       </c>
       <c r="AB48">
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="AY48">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="BC48">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD48">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>60</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="M49" s="3">
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="W49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X49">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>400</v>
       </c>
       <c r="AB49">
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ49">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="BC49">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD49">
         <v>0</v>
@@ -10162,7 +10162,7 @@
         <v>60</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="M50" s="3">
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="W50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X50">
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4000</v>
       </c>
       <c r="AB50">
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AY50">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="BC50">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD50">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>60</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="M51" s="3">
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="W51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X51">
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10000</v>
       </c>
       <c r="AB51">
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="BC51">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD51">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>60</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="M52" s="3">
@@ -10567,7 +10567,7 @@
         <v>1</v>
       </c>
       <c r="W52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X52">
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="AB52">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="AY52">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ52">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="BC52">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD52">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>60</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="M53" s="3">
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="W53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X53">
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30000</v>
       </c>
       <c r="AB53">
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AY53">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="BC53">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD53">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>60</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="M54" s="3">
@@ -10937,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="W54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X54">
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>34000</v>
       </c>
       <c r="AB54">
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="AY54">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ54">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="BC54">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD54">
         <v>0</v>
@@ -11087,7 +11087,7 @@
         <v>60</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="M55" s="3">
@@ -11122,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="W55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="X55">
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>40000</v>
       </c>
       <c r="AB55">
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AY55">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ55">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BC55">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD55">
         <v>0</v>
@@ -11240,26 +11240,26 @@
         <v>20</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:C97" si="21">A56*B56</f>
+        <f t="shared" ref="C56:C97" si="22">A56*B56</f>
         <v>400</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" ref="D56:D97" si="22">IF(A56=B56,"square","rect")</f>
+        <f t="shared" ref="D56:D97" si="23">IF(A56=B56,"square","rect")</f>
         <v>square</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ref="E56:E97" si="23">A56/B56</f>
+        <f t="shared" ref="E56:E97" si="24">A56/B56</f>
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" ref="G56:G97" si="24">IF(AY56&gt;0,"yes","no")</f>
+        <f t="shared" ref="G56:G97" si="25">IF(AY56&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" ref="H56:H97" si="25">IF(U56&gt;0,"yes","no")</f>
+        <f t="shared" ref="H56:H97" si="26">IF(U56&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I56" s="3">
@@ -11272,11 +11272,11 @@
         <v>61</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" ref="L56:L97" si="26">AA56/W56</f>
+        <f t="shared" ref="L56:L97" si="27">AA56/W56</f>
         <v>1</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" ref="M56:M97" si="27">P56/Q56</f>
+        <f t="shared" ref="M56:M97" si="28">P56/Q56</f>
         <v>4</v>
       </c>
       <c r="N56">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <f>(A56*B56)*I56</f>
+        <f t="shared" ref="AA56:AA87" si="29">(A56*B56)*I56</f>
         <v>400</v>
       </c>
       <c r="AB56">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AY56">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="BC56">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD56">
         <v>0</v>
@@ -11425,26 +11425,26 @@
         <v>20</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I57" s="3">
@@ -11457,11 +11457,11 @@
         <v>61</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N57">
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="W57">
-        <f t="shared" ref="W57:W97" si="28">(J57/100)*(A57*B57)</f>
+        <f t="shared" ref="W57:W97" si="30">(J57/100)*(A57*B57)</f>
         <v>400</v>
       </c>
       <c r="X57">
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <f>(A57*B57)*I57</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AB57">
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ57">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="BC57">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD57">
         <v>0</v>
@@ -11610,26 +11610,26 @@
         <v>20</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I58" s="3">
@@ -11642,11 +11642,11 @@
         <v>61</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N58">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="W58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X58">
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <f>(A58*B58)*I58</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AB58">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AY58">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ58">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD58">
         <v>0</v>
@@ -11795,26 +11795,26 @@
         <v>20</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I59" s="3">
@@ -11827,11 +11827,11 @@
         <v>61</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N59">
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="W59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X59">
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <f>(A59*B59)*I59</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AB59">
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AY59">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ59">
         <v>0</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD59">
         <v>0</v>
@@ -11980,26 +11980,26 @@
         <v>20</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I60" s="3">
@@ -12012,11 +12012,11 @@
         <v>61</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N60">
@@ -12047,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="W60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X60">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <f>(A60*B60)*I60</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AB60">
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="AY60">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ60">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="BC60">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD60">
         <v>0</v>
@@ -12165,26 +12165,26 @@
         <v>20</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I61" s="3">
@@ -12197,11 +12197,11 @@
         <v>61</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N61">
@@ -12232,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="W61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X61">
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <f>(A61*B61)*I61</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AB61">
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="AY61">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ61">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="BC61">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD61">
         <v>0</v>
@@ -12350,26 +12350,26 @@
         <v>20</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I62" s="3">
@@ -12382,11 +12382,11 @@
         <v>61</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N62">
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="W62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X62">
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <f>(A62*B62)*I62</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AB62">
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AY62">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ62">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="BC62">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD62">
         <v>0</v>
@@ -12535,26 +12535,26 @@
         <v>20</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I63" s="3">
@@ -12567,11 +12567,11 @@
         <v>61</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N63">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="W63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X63">
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <f>(A63*B63)*I63</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AB63">
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AY63">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ63">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="BC63">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD63">
         <v>0</v>
@@ -12720,26 +12720,26 @@
         <v>20</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H64" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I64" s="3">
@@ -12752,11 +12752,11 @@
         <v>61</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N64">
@@ -12787,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="W64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X64">
@@ -12800,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <f>(A64*B64)*I64</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AB64">
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="AY64">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ64">
         <v>0</v>
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="BC64">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD64">
         <v>0</v>
@@ -12905,26 +12905,26 @@
         <v>20</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H65" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I65" s="3">
@@ -12937,11 +12937,11 @@
         <v>61</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N65">
@@ -12972,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="W65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X65">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <f>(A65*B65)*I65</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AB65">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="AY65">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ65">
         <v>0</v>
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="BC65">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD65">
         <v>0</v>
@@ -13090,26 +13090,26 @@
         <v>20</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H66" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I66" s="3">
@@ -13122,11 +13122,11 @@
         <v>61</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N66">
@@ -13157,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="W66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X66">
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <f>(A66*B66)*I66</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AB66">
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="AY66">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ66">
         <v>0</v>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="BC66">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD66">
         <v>0</v>
@@ -13275,26 +13275,26 @@
         <v>20</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I67" s="3">
@@ -13307,11 +13307,11 @@
         <v>61</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N67">
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="W67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X67">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <f>(A67*B67)*I67</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AB67">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="BC67">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD67">
         <v>0</v>
@@ -13460,26 +13460,26 @@
         <v>20</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H68" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I68" s="3">
@@ -13492,11 +13492,11 @@
         <v>61</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N68">
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="W68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X68">
@@ -13540,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <f>(A68*B68)*I68</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AB68">
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="AY68">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="BC68">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD68">
         <v>0</v>
@@ -13645,26 +13645,26 @@
         <v>20</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H69" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I69" s="3">
@@ -13677,11 +13677,11 @@
         <v>61</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N69">
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X69">
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <f>(A69*B69)*I69</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AB69">
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="AY69">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ69">
         <v>0</v>
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="BC69">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD69">
         <v>0</v>
@@ -13830,26 +13830,26 @@
         <v>20</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H70" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I70" s="3">
@@ -13862,11 +13862,11 @@
         <v>61</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N70">
@@ -13897,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="W70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X70">
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <f>(A70*B70)*I70</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AB70">
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="AY70">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ70">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="BC70">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD70">
         <v>0</v>
@@ -14015,26 +14015,26 @@
         <v>20</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H71" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I71" s="3">
@@ -14047,11 +14047,11 @@
         <v>61</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N71">
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="W71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X71">
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <f>(A71*B71)*I71</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AB71">
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="AY71">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ71">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="BC71">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD71">
         <v>0</v>
@@ -14200,26 +14200,26 @@
         <v>20</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H72" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I72" s="3">
@@ -14232,11 +14232,11 @@
         <v>61</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N72">
@@ -14267,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="W72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X72">
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <f>(A72*B72)*I72</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AB72">
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ72">
         <v>0</v>
@@ -14365,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="BC72">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD72">
         <v>0</v>
@@ -14385,26 +14385,26 @@
         <v>20</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H73" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I73" s="3">
@@ -14417,11 +14417,11 @@
         <v>61</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N73">
@@ -14452,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="W73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X73">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <f>(A73*B73)*I73</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AB73">
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="AY73">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ73">
         <v>0</v>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="BC73">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD73">
         <v>0</v>
@@ -14570,26 +14570,26 @@
         <v>20</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H74" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I74" s="3">
@@ -14602,11 +14602,11 @@
         <v>61</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N74">
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="W74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X74">
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <f>(A74*B74)*I74</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AB74">
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ74">
         <v>0</v>
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="BC74">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD74">
         <v>0</v>
@@ -14755,26 +14755,26 @@
         <v>20</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H75" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I75" s="3">
@@ -14787,11 +14787,11 @@
         <v>61</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N75">
@@ -14822,7 +14822,7 @@
         <v>1</v>
       </c>
       <c r="W75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X75">
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <f>(A75*B75)*I75</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AB75">
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AY75">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ75">
         <v>0</v>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="BC75">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD75">
         <v>0</v>
@@ -14940,26 +14940,26 @@
         <v>20</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H76" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I76" s="3">
@@ -14972,11 +14972,11 @@
         <v>61</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N76">
@@ -15007,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="W76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X76">
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <f>(A76*B76)*I76</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AB76">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="AY76">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ76">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="BC76">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD76">
         <v>0</v>
@@ -15125,26 +15125,26 @@
         <v>20</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H77" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I77" s="3">
@@ -15157,11 +15157,11 @@
         <v>61</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N77">
@@ -15192,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="W77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X77">
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <f>(A77*B77)*I77</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AB77">
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="AY77">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ77">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="BC77">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -15310,26 +15310,26 @@
         <v>20</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H78" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I78" s="3">
@@ -15342,11 +15342,11 @@
         <v>61</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N78">
@@ -15377,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="W78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X78">
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <f>(A78*B78)*I78</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AB78">
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="AY78">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ78">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="BC78">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -15495,26 +15495,26 @@
         <v>20</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H79" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I79" s="3">
@@ -15527,11 +15527,11 @@
         <v>61</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N79">
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="W79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X79">
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <f>(A79*B79)*I79</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AB79">
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="AY79">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ79">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="BC79">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -15680,26 +15680,26 @@
         <v>20</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H80" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I80" s="3">
@@ -15712,11 +15712,11 @@
         <v>61</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N80">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="W80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X80">
@@ -15760,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <f>(A80*B80)*I80</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AB80">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="AY80">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ80">
         <v>0</v>
@@ -15845,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="BC80">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -15865,26 +15865,26 @@
         <v>20</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H81" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I81" s="3">
@@ -15897,11 +15897,11 @@
         <v>61</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N81">
@@ -15932,7 +15932,7 @@
         <v>1</v>
       </c>
       <c r="W81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X81">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <f>(A81*B81)*I81</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AB81">
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="AY81">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ81">
         <v>0</v>
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="BC81">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -16050,26 +16050,26 @@
         <v>20</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H82" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I82" s="3">
@@ -16082,11 +16082,11 @@
         <v>61</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N82">
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="W82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X82">
@@ -16130,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <f>(A82*B82)*I82</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AB82">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="AY82">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ82">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="BC82">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD82">
         <v>0</v>
@@ -16235,26 +16235,26 @@
         <v>20</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H83" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I83" s="3">
@@ -16267,11 +16267,11 @@
         <v>61</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N83">
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="W83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X83">
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <f>(A83*B83)*I83</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AB83">
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AY83">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ83">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="BC83">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD83">
         <v>0</v>
@@ -16420,26 +16420,26 @@
         <v>20</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H84" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I84" s="3">
@@ -16452,11 +16452,11 @@
         <v>61</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N84">
@@ -16488,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="W84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X84">
@@ -16501,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <f>(A84*B84)*I84</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AB84">
@@ -16574,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="AY84">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ84">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="BC84">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD84">
         <v>0</v>
@@ -16606,26 +16606,26 @@
         <v>20</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H85" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I85" s="3">
@@ -16638,11 +16638,11 @@
         <v>61</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N85">
@@ -16655,7 +16655,7 @@
         <v>7.5</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" ref="Q85:Q90" si="29">7.5/4</f>
+        <f t="shared" ref="Q85:Q90" si="31">7.5/4</f>
         <v>1.875</v>
       </c>
       <c r="R85" s="2">
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="W85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X85">
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <f>(A85*B85)*I85</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AB85">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="AY85">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ85">
         <v>0</v>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="BC85">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD85">
         <v>0</v>
@@ -16792,26 +16792,26 @@
         <v>20</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H86" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I86" s="3">
@@ -16824,11 +16824,11 @@
         <v>61</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N86">
@@ -16841,7 +16841,7 @@
         <v>7.5</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.875</v>
       </c>
       <c r="R86" s="2">
@@ -16860,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="W86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X86">
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <f>(A86*B86)*I86</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AB86">
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="AY86">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ86">
         <v>0</v>
@@ -16958,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="BC86">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD86">
         <v>0</v>
@@ -16978,26 +16978,26 @@
         <v>20</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H87" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I87" s="3">
@@ -17010,11 +17010,11 @@
         <v>61</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M87" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N87">
@@ -17027,7 +17027,7 @@
         <v>7.5</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.875</v>
       </c>
       <c r="R87" s="2">
@@ -17046,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="W87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X87">
@@ -17059,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <f>(A87*B87)*I87</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AB87">
@@ -17132,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="AY87">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ87">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="BC87">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -17164,26 +17164,26 @@
         <v>20</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H88" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I88" s="3">
@@ -17196,11 +17196,11 @@
         <v>61</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N88">
@@ -17213,7 +17213,7 @@
         <v>7.5</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.875</v>
       </c>
       <c r="R88" s="2">
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="W88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X88">
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <f t="shared" ref="AA88:AA97" si="30">(A88*B88)*I88</f>
+        <f t="shared" ref="AA88:AA97" si="32">(A88*B88)*I88</f>
         <v>30000</v>
       </c>
       <c r="AB88">
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="AY88">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ88">
         <v>0</v>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="BC88">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -17350,26 +17350,26 @@
         <v>20</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H89" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I89" s="3">
@@ -17382,11 +17382,11 @@
         <v>61</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M89" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N89">
@@ -17399,7 +17399,7 @@
         <v>7.5</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.875</v>
       </c>
       <c r="R89" s="2">
@@ -17418,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="W89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X89">
@@ -17431,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34000</v>
       </c>
       <c r="AB89">
@@ -17504,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AY89">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ89">
         <v>0</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="BC89">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD89">
         <v>0</v>
@@ -17536,26 +17536,26 @@
         <v>20</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H90" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I90" s="3">
@@ -17568,11 +17568,11 @@
         <v>61</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N90">
@@ -17585,7 +17585,7 @@
         <v>7.5</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.875</v>
       </c>
       <c r="R90" s="2">
@@ -17604,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="W90">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X90">
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>40000</v>
       </c>
       <c r="AB90">
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="AY90">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ90">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="BC90">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD90">
         <v>0</v>
@@ -17722,26 +17722,26 @@
         <v>20</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H91" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I91" s="3">
@@ -17754,11 +17754,11 @@
         <v>61</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N91">
@@ -17789,22 +17789,22 @@
         <v>1</v>
       </c>
       <c r="W91">
-        <f t="shared" si="28"/>
-        <v>400</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AA91">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="32"/>
+        <v>400</v>
+      </c>
       <c r="AB91">
         <v>0</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="AY91">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ91">
         <v>0</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="BC91">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD91">
         <v>0</v>
@@ -17907,26 +17907,26 @@
         <v>20</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H92" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I92" s="3">
@@ -17939,11 +17939,11 @@
         <v>61</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N92">
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="W92">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X92">
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4000</v>
       </c>
       <c r="AB92">
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AY92">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ92">
         <v>0</v>
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="BC92">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD92">
         <v>0</v>
@@ -18092,26 +18092,26 @@
         <v>20</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H93" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I93" s="3">
@@ -18124,11 +18124,11 @@
         <v>61</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N93">
@@ -18159,7 +18159,7 @@
         <v>1</v>
       </c>
       <c r="W93">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X93">
@@ -18172,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10000</v>
       </c>
       <c r="AB93">
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="AY93">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ93">
         <v>0</v>
@@ -18257,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="BC93">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD93">
         <v>0</v>
@@ -18277,26 +18277,26 @@
         <v>20</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H94" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I94" s="3">
@@ -18309,11 +18309,11 @@
         <v>61</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N94">
@@ -18344,7 +18344,7 @@
         <v>1</v>
       </c>
       <c r="W94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X94">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>20000</v>
       </c>
       <c r="AB94">
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="AY94">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ94">
         <v>0</v>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="BC94">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD94">
         <v>0</v>
@@ -18462,26 +18462,26 @@
         <v>20</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H95" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I95" s="3">
@@ -18494,11 +18494,11 @@
         <v>61</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N95">
@@ -18529,7 +18529,7 @@
         <v>1</v>
       </c>
       <c r="W95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X95">
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30000</v>
       </c>
       <c r="AB95">
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="AY95">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ95">
         <v>0</v>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="BC95">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD95">
         <v>0</v>
@@ -18647,26 +18647,26 @@
         <v>20</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H96" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I96" s="3">
@@ -18679,11 +18679,11 @@
         <v>61</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N96">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="W96">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X96">
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34000</v>
       </c>
       <c r="AB96">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="AY96">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ96">
         <v>0</v>
@@ -18812,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="BC96">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD96">
         <v>0</v>
@@ -18832,26 +18832,26 @@
         <v>20</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>yes</v>
       </c>
       <c r="H97" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
       <c r="I97" s="3">
@@ -18864,11 +18864,11 @@
         <v>61</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M97" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="N97">
@@ -18899,7 +18899,7 @@
         <v>1</v>
       </c>
       <c r="W97">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="X97">
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>40000</v>
       </c>
       <c r="AB97">
@@ -18985,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="AY97">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="AZ97">
         <v>0</v>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="BC97">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="BD97">
         <v>0</v>
